--- a/Project/CRMRetention/Submission/변수설명.xlsx
+++ b/Project/CRMRetention/Submission/변수설명.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\Project\CRMRetention\Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40220E90-10C1-493F-9514-26DB5F539A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E121A8-3AE2-4AF8-B20C-9BA9A320810A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{7B4C0D56-2BAF-41B8-AB61-AB82A20C787B}"/>
+    <workbookView xWindow="51110" yWindow="0" windowWidth="19380" windowHeight="21690" activeTab="1" xr2:uid="{7B4C0D56-2BAF-41B8-AB61-AB82A20C787B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="176">
   <si>
     <t>그룹</t>
   </si>
@@ -11953,6 +11954,115 @@
   </si>
   <si>
     <t>유저 오픈 횟수(30일내)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Category</t>
+  </si>
+  <si>
+    <t>Positive Contribuiton</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Negative Contribuiton</t>
+  </si>
+  <si>
+    <t>마케팅 피로도 패턴</t>
+  </si>
+  <si>
+    <t>채널별 특정 주제 캠페인 오픈율(30일 내)</t>
+  </si>
+  <si>
+    <t>메시지 수신: 기타</t>
+  </si>
+  <si>
+    <t>재구매 준비도</t>
+  </si>
+  <si>
+    <t>캠페인 채널: 모바일 푸시</t>
+  </si>
+  <si>
+    <t>채널 메세지 유형: 기타 거래 발송</t>
+  </si>
+  <si>
+    <t>채널 메세지 유형: 전체 유저 발송</t>
+  </si>
+  <si>
+    <t>푸시 경과 시간</t>
+  </si>
+  <si>
+    <t>채널 캠페인 유형: 특정 유저행동 발송</t>
+  </si>
+  <si>
+    <t>캠페인 채널: 이메일</t>
+  </si>
+  <si>
+    <t>이메일 계정: 기타</t>
+  </si>
+  <si>
+    <t>시계열적 메시지 반응 패턴</t>
+  </si>
+  <si>
+    <t>채널 캠페인 유형: 기타 거래 발송</t>
+  </si>
+  <si>
+    <t>캠페인 채널: 멀티채널</t>
+  </si>
+  <si>
+    <t>채널 캠페인 유형: 전체 유저 발송</t>
+  </si>
+  <si>
+    <t>마지막 클릭 경과 시간(평균)</t>
+  </si>
+  <si>
+    <t>메시지 수신: 스마트폰</t>
+  </si>
+  <si>
+    <t>마케팅 채널 효과성 패턴</t>
+  </si>
+  <si>
+    <t>주제 경과 시간</t>
+  </si>
+  <si>
+    <t>메시지 수신: 데스크탑</t>
+  </si>
+  <si>
+    <t>캠페인 주제: 할인 정보</t>
+  </si>
+  <si>
+    <t>구매 후 불응기</t>
+  </si>
+  <si>
+    <t>발송 간격 표준편차</t>
+  </si>
+  <si>
+    <t>캠페인 지속 시간(평균)</t>
+  </si>
+  <si>
+    <t>유저 클릭율(30일 내)</t>
+  </si>
+  <si>
+    <t>이메일 계정: Mail.ru</t>
+  </si>
+  <si>
+    <t>캠페인 주제: 기타</t>
+  </si>
+  <si>
+    <t>주제 노출 수(7일)</t>
+  </si>
+  <si>
+    <t>채널 메세지 유형: 특정 유저행동 발송</t>
+  </si>
+  <si>
+    <t>마지막 오픈 경과 시간(평균)</t>
+  </si>
+  <si>
+    <t>마지막 접촉 경과 시간</t>
+  </si>
+  <si>
+    <t>마케팅 피로도 패턴</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -11960,7 +12070,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12047,8 +12157,51 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12067,8 +12220,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -12146,13 +12347,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12166,6 +12419,27 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12186,26 +12460,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12543,32 +12838,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA5BBF4-72F0-4495-8269-0D95B00200F2}">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J6" zoomScale="84" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="J6" zoomScale="84" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.796875" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.8125" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="74.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.59765625" customWidth="1"/>
-    <col min="7" max="7" width="23.59765625" customWidth="1"/>
+    <col min="4" max="4" width="74.1875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="23.625" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.09765625" customWidth="1"/>
-    <col min="12" max="12" width="27.8984375" customWidth="1"/>
+    <col min="9" max="9" width="70.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.125" customWidth="1"/>
+    <col min="12" max="12" width="27.875" customWidth="1"/>
     <col min="13" max="13" width="33.5" customWidth="1"/>
-    <col min="14" max="14" width="78.296875" customWidth="1"/>
-    <col min="16" max="16" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="74.69921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="78.3125" customWidth="1"/>
+    <col min="16" max="16" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="74.6875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="78.8984375" customWidth="1"/>
+    <col min="24" max="24" width="78.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
@@ -12610,218 +12905,218 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="11"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="11"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="6"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="9"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="11"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="7"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="9"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="12" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="11"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="11"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="6"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="9"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="11"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="11"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="7"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="9"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="9"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="12" t="s">
+      <c r="K8" s="16"/>
+      <c r="L8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="11"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="11"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="6"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="9"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="11"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="7"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="9"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="12" t="s">
+      <c r="K11" s="16"/>
+      <c r="L11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
       <c r="F12" s="3" t="s">
         <v>0</v>
       </c>
@@ -12834,116 +13129,116 @@
       <c r="I12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="6"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="11"/>
-      <c r="F13" s="8" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="F13" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="7"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="6"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="12" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="13"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="11"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="7"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="6"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="9"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="14"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="11"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="12" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="9"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="7"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:15" ht="30" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="6"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="12" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="13"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="12" t="s">
         <v>114</v>
       </c>
       <c r="O17" t="s">
@@ -12951,65 +13246,65 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="30" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="11"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="7"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="6"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="14"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="11"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="12" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:15" ht="30" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>94</v>
       </c>
       <c r="E20" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="6"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="12" t="s">
+      <c r="F20" s="16"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="13"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="M20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="12" t="s">
         <v>115</v>
       </c>
       <c r="O20" t="s">
@@ -13017,65 +13312,65 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="30" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="11"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="7"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="6"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="14"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:15" ht="30" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="11"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="12" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:15" ht="30" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>95</v>
       </c>
       <c r="E23" t="s">
         <v>129</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="6"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="12" t="s">
+      <c r="F23" s="16"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="13"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="12" t="s">
         <v>120</v>
       </c>
       <c r="O23" t="s">
@@ -13083,65 +13378,65 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="30" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="11"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="7"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="6"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="14"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:15" ht="30" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="11"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="12" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:15" ht="30" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>96</v>
       </c>
       <c r="E26" t="s">
         <v>128</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="6"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="12" t="s">
+      <c r="F26" s="16"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="13"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="12" t="s">
         <v>116</v>
       </c>
       <c r="O26" t="s">
@@ -13149,64 +13444,64 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="30" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="11"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="7"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="6"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="14"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:15" ht="30" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="11"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="12" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:15" ht="30" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="6"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:15" ht="30" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="7"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="9"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="14"/>
       <c r="K30" s="3" t="s">
         <v>0</v>
       </c>
@@ -13221,202 +13516,202 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="30" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="11"/>
-      <c r="K31" s="8" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="9"/>
+      <c r="K31" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="13" t="s">
+      <c r="M31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="30" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="6"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="13"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="9"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="11"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="7"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="9"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="14"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="11"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="12" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="9"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M34" s="13" t="s">
+      <c r="M34" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>99</v>
       </c>
       <c r="E35" t="s">
         <v>131</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="6"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="13"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="9"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="11"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="7"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="9"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="11"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="12" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M37" s="13" t="s">
+      <c r="M37" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="N37" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="30" customHeight="1">
-      <c r="A38" s="9"/>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E38" t="s">
         <v>132</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="6"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="13"/>
     </row>
     <row r="39" spans="1:14" ht="30" customHeight="1">
-      <c r="A39" s="9"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="11"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
       <c r="E39" t="s">
         <v>133</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="7"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="14"/>
     </row>
     <row r="40" spans="1:14" ht="30" customHeight="1">
-      <c r="A40" s="9"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="11"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="12" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M40" s="14" t="s">
+      <c r="M40" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="30" customHeight="1">
-      <c r="A41" s="9"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E41" t="s">
         <v>134</v>
       </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="6"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="13"/>
     </row>
     <row r="42" spans="1:14" ht="30" customHeight="1">
-      <c r="A42" s="9"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="11"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="7"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="9"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="14"/>
     </row>
     <row r="43" spans="1:14" ht="30" customHeight="1">
-      <c r="A43" s="9"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="11"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:14" ht="30" customHeight="1">
-      <c r="A44" s="9"/>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="9" t="s">
         <v>100</v>
       </c>
       <c r="E44" t="s">
@@ -13424,88 +13719,88 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="30" customHeight="1">
-      <c r="A45" s="9"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:14" ht="30" customHeight="1">
-      <c r="A46" s="9"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:14" ht="30" customHeight="1">
-      <c r="A47" s="9"/>
-      <c r="B47" s="12" t="s">
+      <c r="A47" s="16"/>
+      <c r="B47" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="30" customHeight="1">
-      <c r="A48" s="9"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="11"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="11"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1">
-      <c r="A50" s="9"/>
-      <c r="B50" s="12" t="s">
+      <c r="A50" s="16"/>
+      <c r="B50" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="11"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1">
-      <c r="A52" s="9"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1">
-      <c r="A53" s="9"/>
-      <c r="B53" s="12" t="s">
+      <c r="A53" s="16"/>
+      <c r="B53" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1">
-      <c r="A54" s="9"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="11"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1">
-      <c r="A55" s="10"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="11"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1">
       <c r="A56"/>
@@ -13593,6 +13888,107 @@
     </row>
   </sheetData>
   <mergeCells count="125">
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="A2:A55"/>
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="F13:F30"/>
+    <mergeCell ref="K31:K42"/>
+    <mergeCell ref="K2:K28"/>
+    <mergeCell ref="N40:N42"/>
+    <mergeCell ref="N37:N39"/>
+    <mergeCell ref="N34:N36"/>
+    <mergeCell ref="N31:N33"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="M40:M42"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="M26:M28"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="G22:G24"/>
@@ -13617,109 +14013,390 @@
     <mergeCell ref="M20:M22"/>
     <mergeCell ref="L11:L13"/>
     <mergeCell ref="M11:M13"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="M40:M42"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="A2:A55"/>
-    <mergeCell ref="F2:F10"/>
-    <mergeCell ref="F13:F30"/>
-    <mergeCell ref="K31:K42"/>
-    <mergeCell ref="K2:K28"/>
-    <mergeCell ref="N40:N42"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="N34:N36"/>
-    <mergeCell ref="N31:N33"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="I22:I24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EEA882-075F-409C-99C3-F050DE3B9827}">
+  <dimension ref="B1:F22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <cols>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="3" width="12.5625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="5.5625" style="18" customWidth="1"/>
+    <col min="5" max="6" width="12.5625" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:6" ht="31.9" thickBot="1">
+      <c r="B2" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="39.75" thickBot="1">
+      <c r="B3" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="30">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B4" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="30">
+        <v>2</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B5" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="30">
+        <v>3</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B6" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="30">
+        <v>4</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B7" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="30">
+        <v>5</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="30">
+        <v>6</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="30">
+        <v>7</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B10" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="30">
+        <v>8</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B11" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="30">
+        <v>9</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B12" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="30">
+        <v>10</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B13" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="30">
+        <v>11</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B14" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="30">
+        <v>12</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="30">
+        <v>13</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B16" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="30">
+        <v>14</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B17" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="30">
+        <v>15</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B18" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="30">
+        <v>16</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B19" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="30">
+        <v>17</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B20" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="30">
+        <v>18</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B21" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="30">
+        <v>19</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="26.65" thickBot="1">
+      <c r="B22" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="30">
+        <v>20</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>